--- a/Distance and Difference.xlsx
+++ b/Distance and Difference.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="14560" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,12 @@
     <sheet name="Night Distance" sheetId="4" r:id="rId4"/>
     <sheet name="Afternoon half km " sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1302,7 +1306,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1316,26 +1330,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1450,7 +1444,7 @@
                   <c:v>15157.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17405.419000000002</c:v>
+                  <c:v>17405.419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,10 +1553,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16439.921999999999</c:v>
+                  <c:v>16439.922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18800.531999999999</c:v>
+                  <c:v>18800.532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,11 +1685,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="265110216"/>
-        <c:axId val="265117272"/>
+        <c:axId val="2122110376"/>
+        <c:axId val="2106524968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265110216"/>
+        <c:axId val="2122110376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,8 +1730,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.50757833842198297"/>
-              <c:y val="0.91424079415815596"/>
+              <c:x val="0.507578338421983"/>
+              <c:y val="0.914240794158156"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1748,26 +1742,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1806,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265117272"/>
+        <c:crossAx val="2106524968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +1788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265117272"/>
+        <c:axId val="2106524968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,26 +1833,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1911,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265110216"/>
+        <c:crossAx val="2122110376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,10 +1921,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86524559430071246"/>
-          <c:y val="0.43122865829890084"/>
-          <c:w val="0.12114896352241684"/>
-          <c:h val="0.16708037732907149"/>
+          <c:x val="0.865245594300713"/>
+          <c:y val="0.431228658298901"/>
+          <c:w val="0.121148963522417"/>
+          <c:h val="0.167080377329071"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2087,26 +2041,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2248,37 +2182,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180.0552777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>991.88638888888886</c:v>
+                  <c:v>991.8863888888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.216666666666669</c:v>
+                  <c:v>46.21666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193.91666666666666</c:v>
+                  <c:v>193.9166666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1071.7833333333333</c:v>
+                  <c:v>1071.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.966666666666669</c:v>
+                  <c:v>53.96666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>159.6888888888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>836.25972222222231</c:v>
+                  <c:v>836.2597222222223</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>46.6</c:v>
@@ -2298,11 +2232,11 @@
         </c:dLbls>
         <c:gapWidth val="227"/>
         <c:overlap val="-48"/>
-        <c:axId val="265114528"/>
-        <c:axId val="265110608"/>
+        <c:axId val="2132428136"/>
+        <c:axId val="2132374008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265114528"/>
+        <c:axId val="2132428136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,26 +2277,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2401,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265110608"/>
+        <c:crossAx val="2132374008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2409,7 +2323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265110608"/>
+        <c:axId val="2132374008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,26 +2368,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2506,7 +2400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265114528"/>
+        <c:crossAx val="2132428136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2600,7 +2494,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2614,26 +2518,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2854,7 +2738,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28.871666666666666</c:v>
+                  <c:v>28.87166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,7 +2847,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.618611111111111</c:v>
+                  <c:v>22.61861111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,11 +2864,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="265111784"/>
-        <c:axId val="265112568"/>
+        <c:axId val="2063528392"/>
+        <c:axId val="2126979640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265111784"/>
+        <c:axId val="2063528392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,8 +2909,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.50757833842198297"/>
-              <c:y val="0.91424079415815596"/>
+              <c:x val="0.507578338421983"/>
+              <c:y val="0.914240794158156"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3037,26 +2921,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3095,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265112568"/>
+        <c:crossAx val="2126979640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +2967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265112568"/>
+        <c:axId val="2126979640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,26 +3007,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3195,7 +3039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265111784"/>
+        <c:crossAx val="2063528392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3251,10 +3095,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86524559430071246"/>
-          <c:y val="0.43122865829890084"/>
-          <c:w val="0.12114896352241684"/>
-          <c:h val="0.16708037732907149"/>
+          <c:x val="0.865245594300713"/>
+          <c:y val="0.431228658298901"/>
+          <c:w val="0.121148963522417"/>
+          <c:h val="0.167080377329071"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3375,26 +3219,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3405,7 +3229,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Bike</c:v>
           </c:tx>
@@ -3506,7 +3330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>397.62200000000001</c:v>
+                  <c:v>397.622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,7 +3338,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Drive</c:v>
           </c:tx>
@@ -3615,7 +3439,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>422.23700000000002</c:v>
+                  <c:v>422.237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,8 +3456,8 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="267335864"/>
-        <c:axId val="267341744"/>
+        <c:axId val="2128679432"/>
+        <c:axId val="2130351080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3757,7 +3581,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267335864"/>
+        <c:axId val="2128679432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,8 +3622,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.50757833842198297"/>
-              <c:y val="0.91424079415815596"/>
+              <c:x val="0.507578338421983"/>
+              <c:y val="0.914240794158156"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3810,26 +3634,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3868,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267341744"/>
+        <c:crossAx val="2130351080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3876,7 +3680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267341744"/>
+        <c:axId val="2130351080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,26 +3720,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3968,7 +3752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267335864"/>
+        <c:crossAx val="2128679432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4024,10 +3808,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86524559430071246"/>
-          <c:y val="0.43122865829890084"/>
-          <c:w val="0.12114896352241684"/>
-          <c:h val="0.16708037732907149"/>
+          <c:x val="0.865245594300713"/>
+          <c:y val="0.431228658298901"/>
+          <c:w val="0.121148963522417"/>
+          <c:h val="0.167080377329071"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4111,6 +3895,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4119,26 +3929,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4178,37 +3968,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,16 +4010,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48.741935483870975</c:v>
+                  <c:v>48.74193548387097</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>119.9354838709678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12903225806439877</c:v>
+                  <c:v>-0.129032258064399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.935483870967801</c:v>
+                  <c:v>98.9354838709678</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>612.8387096774195</c:v>
@@ -4238,16 +4028,16 @@
                   <c:v>816.8064516129034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1411.2631578947367</c:v>
+                  <c:v>1411.263157894737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2147.9230769230771</c:v>
+                  <c:v>2147.923076923077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2004.1333333333332</c:v>
+                  <c:v>2004.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2337.4285714285716</c:v>
+                  <c:v>2337.428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267337040"/>
-        <c:axId val="267339392"/>
+        <c:axId val="2070914648"/>
+        <c:axId val="2132401672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267337040"/>
+        <c:axId val="2070914648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,12 +4113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267339392"/>
+        <c:crossAx val="2132401672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267339392"/>
+        <c:axId val="2132401672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267337040"/>
+        <c:crossAx val="2070914648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4449,6 +4239,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4457,26 +4273,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4516,37 +4312,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4558,34 +4354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.225806451612925</c:v>
+                  <c:v>29.22580645161293</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44.48387096774195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.193548387096598</c:v>
+                  <c:v>40.1935483870966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-43.064516129032199</c:v>
+                  <c:v>-43.0645161290322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>378.25806451612971</c:v>
+                  <c:v>378.2580645161297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>413.85714285714312</c:v>
+                  <c:v>413.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1108.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1232.8333333333339</c:v>
+                  <c:v>1232.833333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898.89999999999964</c:v>
+                  <c:v>898.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2412.090909090909</c:v>
+                  <c:v>2412.09090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,11 +4396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267340568"/>
-        <c:axId val="267341352"/>
+        <c:axId val="2132405224"/>
+        <c:axId val="2070115992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267340568"/>
+        <c:axId val="2132405224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,12 +4457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267341352"/>
+        <c:crossAx val="2070115992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267341352"/>
+        <c:axId val="2070115992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267340568"/>
+        <c:crossAx val="2132405224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4787,6 +4583,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4795,26 +4633,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4854,37 +4672,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,34 +4714,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.600000000000023</c:v>
+                  <c:v>43.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6451612903224486</c:v>
+                  <c:v>9.645161290322448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-45.838709677419502</c:v>
+                  <c:v>-45.8387096774195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>318.74193548387075</c:v>
+                  <c:v>318.7419354838707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>605.07142857142844</c:v>
+                  <c:v>605.0714285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>625.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1237</c:v>
+                  <c:v>1237.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1808.8999999999996</c:v>
+                  <c:v>1808.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-723</c:v>
+                  <c:v>-723.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4120.6666666666661</c:v>
+                  <c:v>4120.666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,11 +4756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267342136"/>
-        <c:axId val="267337432"/>
+        <c:axId val="2119390712"/>
+        <c:axId val="2064095928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267342136"/>
+        <c:axId val="2119390712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4999,12 +4817,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267337432"/>
+        <c:crossAx val="2064095928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267337432"/>
+        <c:axId val="2064095928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5061,7 +4879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267342136"/>
+        <c:crossAx val="2119390712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5125,6 +4943,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5134,26 +4977,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5193,43 +5016,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5241,40 +5064,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>36.714285714285694</c:v>
+                  <c:v>36.71428571428569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.290322580645238</c:v>
+                  <c:v>79.29032258064523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.741935483870975</c:v>
+                  <c:v>50.74193548387097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.741935483870748</c:v>
+                  <c:v>71.74193548387074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3225806451609969</c:v>
+                  <c:v>9.322580645160996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.48387096774195</c:v>
+                  <c:v>130.483870967742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.903225806451701</c:v>
+                  <c:v>63.9032258064517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.645161290322449</c:v>
+                  <c:v>87.64516129032244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>716.76000000000022</c:v>
+                  <c:v>716.7600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>670.64000000000033</c:v>
+                  <c:v>670.6400000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>847</c:v>
+                  <c:v>847.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>747.88235294117658</c:v>
+                  <c:v>747.8823529411765</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>631.375</c:v>
@@ -5292,11 +5115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267342528"/>
-        <c:axId val="267343312"/>
+        <c:axId val="2070807432"/>
+        <c:axId val="2070813016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267342528"/>
+        <c:axId val="2070807432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,12 +5176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267343312"/>
+        <c:crossAx val="2070813016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267343312"/>
+        <c:axId val="2070813016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5415,7 +5238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267342528"/>
+        <c:crossAx val="2070807432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10094,16 +9917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10242,7 +10065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10277,7 +10100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10492,15 +10315,15 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10514,7 +10337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10530,7 +10353,7 @@
         <v>0.60219156447417321</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -10546,7 +10369,7 @@
         <v>50.695234113712374</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -10562,7 +10385,7 @@
         <v>3.3173457822370866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -10578,7 +10401,7 @@
         <v>58.212103678929772</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -10594,7 +10417,7 @@
         <v>0.15457079152731326</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10602,10 +10425,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -10619,7 +10442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -10635,7 +10458,7 @@
         <v>0.64424141749723141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -10651,7 +10474,7 @@
         <v>54.617681063122916</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -10667,7 +10490,7 @@
         <v>3.5607419712070874</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -10683,7 +10506,7 @@
         <v>62.460239202657803</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -10699,7 +10522,7 @@
         <v>0.17929125138427465</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -10707,7 +10530,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -10721,7 +10544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -10737,7 +10560,7 @@
         <v>0.53407655146785582</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -10753,7 +10576,7 @@
         <v>43.018936454849502</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -10769,7 +10592,7 @@
         <v>2.7968552582683022</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -10785,7 +10608,7 @@
         <v>49.056347826086956</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -10801,7 +10624,7 @@
         <v>0.15585284280936457</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -10809,7 +10632,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -10823,7 +10646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -10839,7 +10662,7 @@
         <v>0.60219156447417321</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -10855,7 +10678,7 @@
         <v>3.3173457822370866</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -10871,7 +10694,7 @@
         <v>0.15457079152731326</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -10885,7 +10708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -10901,7 +10724,7 @@
         <v>0.64424141749723141</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
@@ -10917,7 +10740,7 @@
         <v>3.5607419712070874</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
@@ -10933,7 +10756,7 @@
         <v>0.17929125138427465</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -10947,7 +10770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
@@ -10963,7 +10786,7 @@
         <v>0.53407655146785582</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -10979,7 +10802,7 @@
         <v>2.7968552582683022</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -10995,7 +10818,7 @@
         <v>0.15585284280936457</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -11006,7 +10829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
@@ -11023,7 +10846,7 @@
         <v>1.7805095334392604</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
@@ -11040,7 +10863,7 @@
         <v>9.6749430117124753</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
@@ -11057,7 +10880,7 @@
         <v>0.48971488572095251</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -11071,7 +10894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
@@ -11087,7 +10910,7 @@
         <v>0.12707084893882648</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -11103,7 +10926,7 @@
         <v>2.3721179775280898</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
@@ -11119,7 +10942,7 @@
         <v>0.1622003745318352</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -11135,7 +10958,7 @@
         <v>2.2338314606741574</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
         <v>22</v>
       </c>
@@ -11151,7 +10974,7 @@
         <v>0.13398876404494384</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
         <v>23</v>
       </c>
@@ -11161,8 +10984,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11170,18 +10998,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T82"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="18" max="19" width="19.44140625" customWidth="1"/>
+    <col min="18" max="19" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -11225,7 +11053,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -11288,7 +11116,7 @@
         <v>48.741935483870975</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -11352,7 +11180,7 @@
         <v>119.9354838709678</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -11415,7 +11243,7 @@
         <v>-0.12903225806439877</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -11478,7 +11306,7 @@
         <v>98.935483870967801</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11541,7 +11369,7 @@
         <v>612.8387096774195</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -11604,7 +11432,7 @@
         <v>816.8064516129034</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11664,7 +11492,7 @@
         <v>1411.2631578947367</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11724,7 +11552,7 @@
         <v>2147.9230769230771</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -11787,7 +11615,7 @@
         <v>2004.1333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -11850,7 +11678,7 @@
         <v>2337.4285714285716</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -11913,7 +11741,7 @@
         <v>2724.7777777777774</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -11976,7 +11804,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -12038,7 +11866,7 @@
         <v>4228.333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -12073,7 +11901,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -12108,7 +11936,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12140,7 +11968,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12172,7 +12000,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -12207,7 +12035,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -12242,7 +12070,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -12277,7 +12105,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -12312,7 +12140,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -12347,7 +12175,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -12382,7 +12210,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -12402,19 +12230,19 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12423,7 +12251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -12432,7 +12260,7 @@
         <v>20215</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -12441,7 +12269,7 @@
         <v>106564</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -12450,7 +12278,7 @@
         <v>26123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -12459,7 +12287,7 @@
         <v>103497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -12468,7 +12296,7 @@
         <v>205800</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -12477,19 +12305,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -12498,7 +12326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -12507,7 +12335,7 @@
         <v>21656</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -12516,7 +12344,7 @@
         <v>140266</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -12525,7 +12353,7 @@
         <v>31402</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>235</v>
       </c>
@@ -12534,7 +12362,7 @@
         <v>121268</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>236</v>
       </c>
@@ -12543,7 +12371,7 @@
         <v>235800</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -12552,19 +12380,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -12573,7 +12401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -12582,7 +12410,7 @@
         <v>23170</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>238</v>
       </c>
@@ -12591,7 +12419,7 @@
         <v>169603</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -12600,7 +12428,7 @@
         <v>35784</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -12609,7 +12437,7 @@
         <v>144282</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>241</v>
       </c>
@@ -12618,7 +12446,7 @@
         <v>274200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -12627,19 +12455,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -12648,7 +12476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>243</v>
       </c>
@@ -12657,7 +12485,7 @@
         <v>14008</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -12666,7 +12494,7 @@
         <v>123368</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>245</v>
       </c>
@@ -12675,7 +12503,7 @@
         <v>24631</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -12684,7 +12512,7 @@
         <v>96554</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>247</v>
       </c>
@@ -12693,7 +12521,7 @@
         <v>136800</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -12702,19 +12530,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -12723,7 +12551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -12732,7 +12560,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -12741,7 +12569,7 @@
         <v>97777</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -12751,7 +12579,7 @@
         <v>17487</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>253</v>
       </c>
@@ -12760,7 +12588,7 @@
         <v>69854</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>254</v>
       </c>
@@ -12769,7 +12597,7 @@
         <v>115800</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -12778,19 +12606,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="B71">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="B72">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -12799,7 +12627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>257</v>
       </c>
@@ -12808,7 +12636,7 @@
         <v>13096</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -12817,7 +12645,7 @@
         <v>126148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -12826,7 +12654,7 @@
         <v>22848</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>260</v>
       </c>
@@ -12835,7 +12663,7 @@
         <v>96086</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -12844,7 +12672,7 @@
         <v>144600</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>261</v>
       </c>
@@ -12853,19 +12681,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="B80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="B81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -12874,7 +12702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -12883,7 +12711,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>263</v>
       </c>
@@ -12892,7 +12720,7 @@
         <v>67558</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>264</v>
       </c>
@@ -12901,7 +12729,7 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -12910,7 +12738,7 @@
         <v>51196</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -12919,7 +12747,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -12928,19 +12756,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="B90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>266</v>
       </c>
@@ -12949,7 +12777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>267</v>
       </c>
@@ -12958,7 +12786,7 @@
         <v>8809</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -12967,7 +12795,7 @@
         <v>94496</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>269</v>
       </c>
@@ -12976,7 +12804,7 @@
         <v>17130</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -12985,7 +12813,7 @@
         <v>69973</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>271</v>
       </c>
@@ -12994,7 +12822,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>272</v>
       </c>
@@ -13003,19 +12831,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="B98">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="B99">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -13024,7 +12852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>273</v>
       </c>
@@ -13033,7 +12861,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>274</v>
       </c>
@@ -13042,7 +12870,7 @@
         <v>22808</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -13051,7 +12879,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -13060,7 +12888,7 @@
         <v>14326</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>277</v>
       </c>
@@ -13069,7 +12897,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -13078,19 +12906,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="B107">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="B108">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>174</v>
       </c>
@@ -13099,7 +12927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>278</v>
       </c>
@@ -13108,7 +12936,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>279</v>
       </c>
@@ -13117,7 +12945,7 @@
         <v>36807</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>280</v>
       </c>
@@ -13126,7 +12954,7 @@
         <v>6316</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>281</v>
       </c>
@@ -13135,7 +12963,7 @@
         <v>24122</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>282</v>
       </c>
@@ -13144,7 +12972,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>180</v>
       </c>
@@ -13153,19 +12981,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="B116">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="B117">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -13174,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -13183,7 +13011,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>284</v>
       </c>
@@ -13192,7 +13020,7 @@
         <v>13212</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -13201,7 +13029,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>286</v>
       </c>
@@ -13210,7 +13038,7 @@
         <v>9293</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>287</v>
       </c>
@@ -13219,7 +13047,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>173</v>
       </c>
@@ -13228,19 +13056,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="B125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="B126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -13249,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -13258,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -13267,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -13276,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -13286,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -13296,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -13309,6 +13137,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13316,26 +13149,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="24.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="26.1640625" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -13379,7 +13212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13442,7 +13275,7 @@
         <v>29.225806451612925</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -13506,7 +13339,7 @@
         <v>44.48387096774195</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -13569,7 +13402,7 @@
         <v>40.193548387096598</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -13632,7 +13465,7 @@
         <v>-43.064516129032199</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -13695,7 +13528,7 @@
         <v>378.25806451612971</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -13758,7 +13591,7 @@
         <v>413.85714285714312</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13818,7 +13651,7 @@
         <v>1108.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13878,7 +13711,7 @@
         <v>1232.8333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -13941,7 +13774,7 @@
         <v>898.89999999999964</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -14004,7 +13837,7 @@
         <v>2412.090909090909</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -14067,7 +13900,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -14130,7 +13963,7 @@
         <v>3198.5714285714294</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -14192,7 +14025,7 @@
         <v>1473.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -14227,7 +14060,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -14262,7 +14095,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14294,7 +14127,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14326,7 +14159,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -14361,7 +14194,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -14396,7 +14229,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -14431,7 +14264,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -14466,7 +14299,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -14501,7 +14334,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -14536,7 +14369,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -14556,19 +14389,19 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14577,7 +14410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -14586,7 +14419,7 @@
         <v>20446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -14595,7 +14428,7 @@
         <v>108952</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -14604,7 +14437,7 @@
         <v>27138</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -14613,7 +14446,7 @@
         <v>110287</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -14622,7 +14455,7 @@
         <v>175800</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14631,19 +14464,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -14652,7 +14485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -14661,7 +14494,7 @@
         <v>21470</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -14670,7 +14503,7 @@
         <v>138748</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -14679,7 +14512,7 @@
         <v>32544</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -14688,7 +14521,7 @@
         <v>127022</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -14697,7 +14530,7 @@
         <v>217200</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -14706,19 +14539,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -14727,7 +14560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -14736,7 +14569,7 @@
         <v>14237</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -14745,7 +14578,7 @@
         <v>112625</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -14754,7 +14587,7 @@
         <v>25524</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -14763,7 +14596,7 @@
         <v>103934</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -14772,7 +14605,7 @@
         <v>144600</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -14781,19 +14614,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -14802,7 +14635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -14811,7 +14644,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -14820,7 +14653,7 @@
         <v>102960</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -14829,7 +14662,7 @@
         <v>20707</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -14838,7 +14671,7 @@
         <v>85221</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -14847,7 +14680,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -14856,19 +14689,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -14877,7 +14710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -14886,7 +14719,7 @@
         <v>13991</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -14895,7 +14728,7 @@
         <v>135445</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -14905,7 +14738,7 @@
         <v>26096</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14914,7 +14747,7 @@
         <v>113254</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -14923,7 +14756,7 @@
         <v>130800</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -14932,19 +14765,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="B71">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="B72">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -14953,7 +14786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -14962,7 +14795,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -14971,7 +14804,7 @@
         <v>84539</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -14980,7 +14813,7 @@
         <v>18012</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -14989,7 +14822,7 @@
         <v>75550</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -14998,7 +14831,7 @@
         <v>70200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -15007,19 +14840,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="B80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="B81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -15028,7 +14861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -15037,7 +14870,7 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -15046,7 +14879,7 @@
         <v>104819</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -15055,7 +14888,7 @@
         <v>18363</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -15064,7 +14897,7 @@
         <v>78286</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -15073,7 +14906,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -15082,19 +14915,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="B90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -15103,7 +14936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -15112,7 +14945,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -15121,7 +14954,7 @@
         <v>51830</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -15130,7 +14963,7 @@
         <v>9248</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -15139,7 +14972,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -15148,7 +14981,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -15157,19 +14990,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="B98">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="B99">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -15178,7 +15011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -15187,7 +15020,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -15196,7 +15029,7 @@
         <v>81129</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -15205,7 +15038,7 @@
         <v>13813</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -15214,7 +15047,7 @@
         <v>58739</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -15223,7 +15056,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -15232,19 +15065,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="B107">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="B108">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -15253,7 +15086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -15262,7 +15095,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -15271,7 +15104,7 @@
         <v>49322</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -15280,7 +15113,7 @@
         <v>10056</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -15289,7 +15122,7 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -15298,7 +15131,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -15307,19 +15140,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="B116">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="B117">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -15328,7 +15161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>111</v>
       </c>
@@ -15337,7 +15170,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -15346,7 +15179,7 @@
         <v>26825</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>113</v>
       </c>
@@ -15355,7 +15188,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -15364,7 +15197,7 @@
         <v>17348</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -15373,7 +15206,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>116</v>
       </c>
@@ -15382,19 +15215,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="B125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="B126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -15403,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -15412,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -15421,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -15430,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -15440,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -15450,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -15462,8 +15295,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15471,25 +15309,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T343"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="18.77734375" customWidth="1"/>
-    <col min="20" max="20" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="26.1640625" customWidth="1"/>
     <col min="21" max="22" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="28">
       <c r="A1" s="8" t="s">
         <v>124</v>
       </c>
@@ -15540,7 +15378,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -15604,7 +15442,7 @@
         <v>43.600000000000023</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -15669,7 +15507,7 @@
         <v>9.6451612903224486</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -15733,7 +15571,7 @@
         <v>-45.838709677419502</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -15797,7 +15635,7 @@
         <v>318.74193548387075</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -15861,7 +15699,7 @@
         <v>605.07142857142844</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -15925,7 +15763,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15986,7 +15824,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16047,7 +15885,7 @@
         <v>1808.8999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -16111,7 +15949,7 @@
         <v>-723</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -16175,7 +16013,7 @@
         <v>4120.6666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -16239,7 +16077,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -16303,7 +16141,7 @@
         <v>2579.3333333333321</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -16367,7 +16205,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -16403,7 +16241,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -16439,7 +16277,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16472,7 +16310,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16505,7 +16343,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -16541,7 +16379,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -16577,7 +16415,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -16613,7 +16451,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -16649,7 +16487,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -16685,7 +16523,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16721,7 +16559,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -16738,19 +16576,19 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -16759,7 +16597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -16768,7 +16606,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -16777,7 +16615,7 @@
         <v>110444</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -16786,7 +16624,7 @@
         <v>25489</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -16795,7 +16633,7 @@
         <v>100563</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -16804,7 +16642,7 @@
         <v>193200</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -16813,19 +16651,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -16834,7 +16672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -16843,7 +16681,7 @@
         <v>18954</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -16852,7 +16690,7 @@
         <v>127572</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -16861,7 +16699,7 @@
         <v>28561</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -16870,7 +16708,7 @@
         <v>110630</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -16879,7 +16717,7 @@
         <v>200400</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -16888,19 +16726,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -16909,7 +16747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -16918,7 +16756,7 @@
         <v>13688</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -16927,7 +16765,7 @@
         <v>109431</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -16936,7 +16774,7 @@
         <v>23391</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -16945,7 +16783,7 @@
         <v>96921</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -16954,7 +16792,7 @@
         <v>130200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -16963,19 +16801,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -16984,7 +16822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -16993,7 +16831,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -17002,7 +16840,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -17011,7 +16849,7 @@
         <v>8787</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -17020,7 +16858,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -17029,7 +16867,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -17038,19 +16876,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -17059,7 +16897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -17068,7 +16906,7 @@
         <v>7729</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -17077,7 +16915,7 @@
         <v>75212</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -17087,7 +16925,7 @@
         <v>13726</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -17096,7 +16934,7 @@
         <v>57123</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -17105,7 +16943,7 @@
         <v>81600</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -17114,19 +16952,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="B71">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="B72">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -17135,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -17144,7 +16982,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -17153,7 +16991,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -17162,7 +17000,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -17171,7 +17009,7 @@
         <v>9289</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -17180,7 +17018,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -17189,19 +17027,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="B80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="B81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -17210,7 +17048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -17219,7 +17057,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -17228,7 +17066,7 @@
         <v>27503</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -17237,7 +17075,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -17246,7 +17084,7 @@
         <v>15141</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -17255,7 +17093,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -17264,19 +17102,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="B90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -17285,7 +17123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -17294,7 +17132,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -17303,7 +17141,7 @@
         <v>20298</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -17312,7 +17150,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -17321,7 +17159,7 @@
         <v>21898</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -17330,7 +17168,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -17339,19 +17177,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="B98">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="B99">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -17360,7 +17198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -17369,7 +17207,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -17378,7 +17216,7 @@
         <v>34268</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -17387,7 +17225,7 @@
         <v>6108</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -17396,7 +17234,7 @@
         <v>26530</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>190</v>
       </c>
@@ -17405,7 +17243,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>180</v>
       </c>
@@ -17414,19 +17252,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="B107">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="B108">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -17435,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>191</v>
       </c>
@@ -17444,7 +17282,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -17453,7 +17291,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -17462,7 +17300,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -17471,7 +17309,7 @@
         <v>11774</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>195</v>
       </c>
@@ -17480,7 +17318,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -17489,19 +17327,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="B116">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="B117">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -17510,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -17519,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -17528,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -17537,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -17546,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -17555,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -17564,19 +17402,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="B125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="B126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>167</v>
       </c>
@@ -17585,7 +17423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>196</v>
       </c>
@@ -17594,7 +17432,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>197</v>
       </c>
@@ -17603,7 +17441,7 @@
         <v>14831</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>198</v>
       </c>
@@ -17612,7 +17450,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>199</v>
       </c>
@@ -17622,7 +17460,7 @@
         <v>12899</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>200</v>
       </c>
@@ -17631,7 +17469,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -17640,1258 +17478,1258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="B134">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="B135">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="B136">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="B137">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="B138">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="B139">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="B140">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="B141">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="B142">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="B143">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="B144">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2">
       <c r="B145">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2">
       <c r="B146">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2">
       <c r="B147">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2">
       <c r="B148">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2">
       <c r="B149">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2">
       <c r="B150">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2">
       <c r="B151">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2">
       <c r="B152">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2">
       <c r="B153">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2">
       <c r="B154">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2">
       <c r="B155">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2">
       <c r="B156">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2">
       <c r="B157">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2">
       <c r="B158">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2">
       <c r="B159">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2">
       <c r="B160">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2">
       <c r="B161">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2">
       <c r="B162">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2">
       <c r="B163">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2">
       <c r="B164">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2">
       <c r="B166">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2">
       <c r="B167">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2">
       <c r="B168">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2">
       <c r="B169">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2">
       <c r="B170">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2">
       <c r="B171">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2">
       <c r="B172">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2">
       <c r="B173">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2">
       <c r="B174">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2">
       <c r="B175">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2">
       <c r="B176">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2">
       <c r="B177">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2">
       <c r="B178">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2">
       <c r="B179">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2">
       <c r="B180">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2">
       <c r="B181">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2">
       <c r="B182">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2">
       <c r="B183">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2">
       <c r="B184">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2">
       <c r="B185">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2">
       <c r="B186">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2">
       <c r="B187">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2">
       <c r="B188">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2">
       <c r="B189">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2">
       <c r="B190">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2">
       <c r="B191">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2">
       <c r="B192">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2">
       <c r="B193">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2">
       <c r="B194">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2">
       <c r="B195">
         <f t="shared" ref="B195:B258" si="16">SUMPRODUCT(MID(0&amp;A195,LARGE(INDEX(ISNUMBER(--MID(A195,ROW($1:$25),1))*
 ROW($1:$25),0),ROW($1:$25))+1,1)*10^ROW($1:$25)/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2">
       <c r="B196">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2">
       <c r="B197">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2">
       <c r="B198">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2">
       <c r="B199">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2">
       <c r="B200">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2">
       <c r="B201">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2">
       <c r="B202">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2">
       <c r="B203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2">
       <c r="B204">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2">
       <c r="B205">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2">
       <c r="B206">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2">
       <c r="B207">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2">
       <c r="B208">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2">
       <c r="B209">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2">
       <c r="B210">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2">
       <c r="B211">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2">
       <c r="B212">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2">
       <c r="B213">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2">
       <c r="B214">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2">
       <c r="B215">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2">
       <c r="B216">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2">
       <c r="B217">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2">
       <c r="B218">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2">
       <c r="B219">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2">
       <c r="B220">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2">
       <c r="B221">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2">
       <c r="B222">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2">
       <c r="B223">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2">
       <c r="B224">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2">
       <c r="B225">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2">
       <c r="B226">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2">
       <c r="B227">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2">
       <c r="B228">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2">
       <c r="B229">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2">
       <c r="B230">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2">
       <c r="B231">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2">
       <c r="B232">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2">
       <c r="B233">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2">
       <c r="B234">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2">
       <c r="B235">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2">
       <c r="B236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2">
       <c r="B237">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2">
       <c r="B238">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2">
       <c r="B239">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2">
       <c r="B240">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2">
       <c r="B241">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2">
       <c r="B242">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2">
       <c r="B243">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2">
       <c r="B244">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2">
       <c r="B245">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2">
       <c r="B246">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2">
       <c r="B247">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2">
       <c r="B248">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2">
       <c r="B249">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2">
       <c r="B250">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2">
       <c r="B251">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2">
       <c r="B252">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2">
       <c r="B253">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2">
       <c r="B254">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2">
       <c r="B255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2">
       <c r="B256">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2">
       <c r="B257">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2">
       <c r="B258">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2">
       <c r="B259">
         <f t="shared" ref="B259:B322" si="17">SUMPRODUCT(MID(0&amp;A259,LARGE(INDEX(ISNUMBER(--MID(A259,ROW($1:$25),1))*
 ROW($1:$25),0),ROW($1:$25))+1,1)*10^ROW($1:$25)/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2">
       <c r="B260">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2">
       <c r="B261">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2">
       <c r="B262">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2">
       <c r="B263">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2">
       <c r="B264">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2">
       <c r="B265">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2">
       <c r="B266">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2">
       <c r="B267">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2">
       <c r="B268">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2">
       <c r="B269">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2">
       <c r="B270">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2">
       <c r="B271">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2">
       <c r="B272">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2">
       <c r="B273">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2">
       <c r="B274">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2">
       <c r="B275">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2">
       <c r="B276">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2">
       <c r="B277">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2">
       <c r="B278">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2">
       <c r="B279">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2">
       <c r="B280">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2">
       <c r="B281">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2">
       <c r="B282">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2">
       <c r="B283">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2">
       <c r="B284">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2">
       <c r="B285">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2">
       <c r="B286">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2">
       <c r="B287">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2">
       <c r="B288">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2">
       <c r="B289">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:2">
       <c r="B290">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2">
       <c r="B291">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2">
       <c r="B292">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2">
       <c r="B293">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:2">
       <c r="B294">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2">
       <c r="B295">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:2">
       <c r="B296">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:2">
       <c r="B297">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:2">
       <c r="B298">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2">
       <c r="B299">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:2">
       <c r="B300">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:2">
       <c r="B301">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:2">
       <c r="B302">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2">
       <c r="B303">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:2">
       <c r="B304">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2">
       <c r="B305">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2">
       <c r="B306">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2">
       <c r="B307">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2">
       <c r="B308">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2">
       <c r="B309">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2">
       <c r="B310">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2">
       <c r="B311">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2">
       <c r="B312">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2">
       <c r="B313">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:2">
       <c r="B314">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2">
       <c r="B315">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2">
       <c r="B316">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2">
       <c r="B317">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:2">
       <c r="B318">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2">
       <c r="B319">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2">
       <c r="B320">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2">
       <c r="B321">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:2">
       <c r="B322">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2">
       <c r="B323">
         <f t="shared" ref="B323:B343" si="18">SUMPRODUCT(MID(0&amp;A323,LARGE(INDEX(ISNUMBER(--MID(A323,ROW($1:$25),1))*
 ROW($1:$25),0),ROW($1:$25))+1,1)*10^ROW($1:$25)/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:2">
       <c r="B324">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2">
       <c r="B325">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2">
       <c r="B326">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2">
       <c r="B327">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2">
       <c r="B328">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2">
       <c r="B329">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:2">
       <c r="B330">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2">
       <c r="B331">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:2">
       <c r="B332">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2">
       <c r="B333">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:2">
       <c r="B334">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2">
       <c r="B335">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:2">
       <c r="B336">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2">
       <c r="B337">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:2">
       <c r="B338">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2">
       <c r="B339">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:2">
       <c r="B340">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2">
       <c r="B341">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:2">
       <c r="B342">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2">
       <c r="B343">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -18899,8 +18737,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18908,16 +18751,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="42">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -18965,7 +18808,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -19031,7 +18874,7 @@
         <v>36.714285714285694</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -19099,7 +18942,7 @@
         <v>79.290322580645238</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -19166,7 +19009,7 @@
         <v>50.741935483870975</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -19233,7 +19076,7 @@
         <v>71.741935483870748</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -19300,7 +19143,7 @@
         <v>9.3225806451609969</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -19367,7 +19210,7 @@
         <v>130.48387096774195</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19431,7 +19274,7 @@
         <v>63.903225806451701</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19495,7 +19338,7 @@
         <v>87.645161290322449</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>295</v>
       </c>
@@ -19562,7 +19405,7 @@
         <v>716.76000000000022</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -19629,7 +19472,7 @@
         <v>670.64000000000033</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -19696,7 +19539,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -19763,7 +19606,7 @@
         <v>747.88235294117658</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>299</v>
       </c>
@@ -19829,7 +19672,7 @@
         <v>631.375</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -19896,7 +19739,7 @@
         <v>1978.454545454546</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -19962,7 +19805,7 @@
         <v>2353.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19994,7 +19837,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20026,7 +19869,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -20061,7 +19904,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>302</v>
       </c>
@@ -20096,7 +19939,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -20131,7 +19974,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>304</v>
       </c>
@@ -20166,7 +20009,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -20201,7 +20044,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -20236,7 +20079,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -20256,19 +20099,19 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>307</v>
       </c>
@@ -20277,7 +20120,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>308</v>
       </c>
@@ -20286,7 +20129,7 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>309</v>
       </c>
@@ -20295,7 +20138,7 @@
         <v>55424</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -20304,7 +20147,7 @@
         <v>15062</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>311</v>
       </c>
@@ -20313,7 +20156,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -20322,7 +20165,7 @@
         <v>163800</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -20331,19 +20174,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -20352,7 +20195,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>314</v>
       </c>
@@ -20361,7 +20204,7 @@
         <v>15385</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>315</v>
       </c>
@@ -20370,7 +20213,7 @@
         <v>70129</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>316</v>
       </c>
@@ -20379,7 +20222,7 @@
         <v>18637</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -20388,7 +20231,7 @@
         <v>69840</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -20397,7 +20240,7 @@
         <v>171600</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -20406,19 +20249,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>319</v>
       </c>
@@ -20427,7 +20270,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -20436,7 +20279,7 @@
         <v>17686</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>321</v>
       </c>
@@ -20445,7 +20288,7 @@
         <v>84995</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>322</v>
       </c>
@@ -20454,7 +20297,7 @@
         <v>21512</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>323</v>
       </c>
@@ -20463,7 +20306,7 @@
         <v>80950</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>324</v>
       </c>
@@ -20472,7 +20315,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -20481,19 +20324,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>325</v>
       </c>
@@ -20502,7 +20345,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>326</v>
       </c>
@@ -20511,7 +20354,7 @@
         <v>20121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>327</v>
       </c>
@@ -20520,7 +20363,7 @@
         <v>101866</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -20529,7 +20372,7 @@
         <v>24501</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -20538,7 +20381,7 @@
         <v>99885</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>330</v>
       </c>
@@ -20547,7 +20390,7 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -20556,19 +20399,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>331</v>
       </c>
@@ -20577,7 +20420,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>332</v>
       </c>
@@ -20586,7 +20429,7 @@
         <v>21379</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>333</v>
       </c>
@@ -20595,7 +20438,7 @@
         <v>114568</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -20605,7 +20448,7 @@
         <v>28595</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>335</v>
       </c>
@@ -20614,7 +20457,7 @@
         <v>111851</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -20623,7 +20466,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -20632,19 +20475,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="B71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="B72">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>337</v>
       </c>
@@ -20653,7 +20496,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>338</v>
       </c>
@@ -20662,7 +20505,7 @@
         <v>16481</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>339</v>
       </c>
@@ -20671,7 +20514,7 @@
         <v>105863</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -20680,7 +20523,7 @@
         <v>22852</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>341</v>
       </c>
@@ -20689,7 +20532,7 @@
         <v>87944</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -20698,7 +20541,7 @@
         <v>186000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>343</v>
       </c>
@@ -20707,19 +20550,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="B80">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="B81">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -20728,7 +20571,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>345</v>
       </c>
@@ -20737,7 +20580,7 @@
         <v>18260</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>346</v>
       </c>
@@ -20746,7 +20589,7 @@
         <v>118342</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>347</v>
       </c>
@@ -20755,7 +20598,7 @@
         <v>26357</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>348</v>
       </c>
@@ -20764,7 +20607,7 @@
         <v>101576</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -20773,7 +20616,7 @@
         <v>208200</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>343</v>
       </c>
@@ -20782,19 +20625,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="B90">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -20803,7 +20646,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>351</v>
       </c>
@@ -20812,7 +20655,7 @@
         <v>11774</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>352</v>
       </c>
@@ -20821,7 +20664,7 @@
         <v>83574</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>353</v>
       </c>
@@ -20830,7 +20673,7 @@
         <v>17690</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>354</v>
       </c>
@@ -20839,7 +20682,7 @@
         <v>70022</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>355</v>
       </c>
@@ -20848,7 +20691,7 @@
         <v>140400</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -20857,19 +20700,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="B98">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="B99">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>356</v>
       </c>
@@ -20878,7 +20721,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>357</v>
       </c>
@@ -20887,7 +20730,7 @@
         <v>12758</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>358</v>
       </c>
@@ -20896,7 +20739,7 @@
         <v>97310</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>359</v>
       </c>
@@ -20905,7 +20748,7 @@
         <v>20535</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>360</v>
       </c>
@@ -20914,7 +20757,7 @@
         <v>84596</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>361</v>
       </c>
@@ -20923,7 +20766,7 @@
         <v>148800</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>362</v>
       </c>
@@ -20932,19 +20775,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="B107">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="B108">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -20953,7 +20796,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -20962,7 +20805,7 @@
         <v>6447</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -20971,7 +20814,7 @@
         <v>48991</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>366</v>
       </c>
@@ -20980,7 +20823,7 @@
         <v>11031</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>367</v>
       </c>
@@ -20989,7 +20832,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>368</v>
       </c>
@@ -20998,7 +20841,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>369</v>
       </c>
@@ -21007,19 +20850,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="B116">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="B117">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>370</v>
       </c>
@@ -21028,7 +20871,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -21037,7 +20880,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -21046,7 +20889,7 @@
         <v>74377</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>373</v>
       </c>
@@ -21055,7 +20898,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>374</v>
       </c>
@@ -21064,7 +20907,7 @@
         <v>52614</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>375</v>
       </c>
@@ -21073,7 +20916,7 @@
         <v>76800</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -21082,19 +20925,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="B125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="B126">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>376</v>
       </c>
@@ -21103,7 +20946,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -21112,7 +20955,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>378</v>
       </c>
@@ -21121,7 +20964,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -21130,7 +20973,7 @@
         <v>7378</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -21140,7 +20983,7 @@
         <v>29572</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>381</v>
       </c>
@@ -21149,7 +20992,7 @@
         <v>61200</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -21161,5 +21004,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>